--- a/CARTERA.xlsx
+++ b/CARTERA.xlsx
@@ -369,6 +369,9 @@
     <t>ACCIONES</t>
   </si>
   <si>
+    <t>STICKER</t>
+  </si>
+  <si>
     <t>PRECIO TOTAL</t>
   </si>
   <si>
@@ -379,9 +382,6 @@
   </si>
   <si>
     <t>ETR:JEQP</t>
-  </si>
-  <si>
-    <t>TICKER</t>
   </si>
 </sst>
 </file>
@@ -998,7 +998,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1021,10 +1021,10 @@
         <v>115</v>
       </c>
       <c r="D1" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>116</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2013,7 +2013,7 @@
         <v>1037.5</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2031,7 +2031,7 @@
         <v>2199</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2048,7 +2048,7 @@
         <v>2297.5</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:5">

--- a/CARTERA.xlsx
+++ b/CARTERA.xlsx
@@ -369,9 +369,6 @@
     <t>ACCIONES</t>
   </si>
   <si>
-    <t>STICKER</t>
-  </si>
-  <si>
     <t>PRECIO TOTAL</t>
   </si>
   <si>
@@ -382,6 +379,9 @@
   </si>
   <si>
     <t>ETR:JEQP</t>
+  </si>
+  <si>
+    <t>TICKER</t>
   </si>
 </sst>
 </file>
@@ -998,7 +998,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1021,10 +1021,10 @@
         <v>115</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2013,7 +2013,7 @@
         <v>1037.5</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2031,7 +2031,7 @@
         <v>2199</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2048,7 +2048,7 @@
         <v>2297.5</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:5">

--- a/CARTERA.xlsx
+++ b/CARTERA.xlsx
@@ -7,19 +7,17 @@
     <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="14385"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="CARTERA" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="137">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -381,24 +379,68 @@
     <t>ETR:JEQP</t>
   </si>
   <si>
-    <t>TICKER</t>
+    <t>IDENTIFICADOR</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>ETF</t>
+  </si>
+  <si>
+    <t>LU1883854355</t>
+  </si>
+  <si>
+    <t>LU0593848301</t>
+  </si>
+  <si>
+    <t>LU0507266061</t>
+  </si>
+  <si>
+    <t>LU0321371998</t>
+  </si>
+  <si>
+    <t>FONDO</t>
+  </si>
+  <si>
+    <t>ACCION</t>
+  </si>
+  <si>
+    <t>AMUNDI</t>
+  </si>
+  <si>
+    <t>MIRAE</t>
+  </si>
+  <si>
+    <t>DWS</t>
+  </si>
+  <si>
+    <t>SCHRODER</t>
+  </si>
+  <si>
+    <t>DIVISA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>USD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -413,12 +455,6 @@
     <font>
       <sz val="6"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -439,19 +475,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -553,72 +588,69 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -995,1095 +1027,1511 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="13" t="s">
+      <c r="G1" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>19.89</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>350</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <f>(C2*B2)</f>
         <v>6961.5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="13" t="s">
+      <c r="G2" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>24.55</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>100</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <f>(C3*B3)</f>
         <v>2455</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="13" t="s">
+      <c r="G3" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>15.756</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>350</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <f>B4*C4</f>
         <v>5514.6</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="14" t="s">
+      <c r="G4" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>25.51</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>100</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <f>B5*C5</f>
         <v>2551</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="14" t="s">
+      <c r="G5" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>6.77</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>140</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <f>B6*C6</f>
         <v>947.8</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="13" t="s">
+      <c r="G6" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>44.76</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>30</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <f>B7*C7</f>
         <v>1342.8</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="15" t="s">
+      <c r="G7" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <f>[1]UK!H2</f>
         <v>7.56</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>290</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>2351.21</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="15" t="s">
+      <c r="G8" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <f>[1]UK!H3</f>
         <v>25.684100000000001</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>100</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>2995.91</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="15" t="s">
+      <c r="G9" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <f>[1]UK!H4</f>
         <v>1.82698</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>1000</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>2083</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="15" t="s">
+      <c r="G10" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>20</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>50</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>1192</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="15" t="s">
+      <c r="G11" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>2.27</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>500</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>1318.78</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="15" t="s">
+      <c r="G12" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <f>[1]UK!H7</f>
         <v>18.093900000000001</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>100</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>2130.56</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="15" t="s">
+      <c r="G13" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>15.09</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <v>100</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>1508.88</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="15" t="s">
+      <c r="G14" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>54.42</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <v>33</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>2242.67</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="15" t="s">
+      <c r="G15" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <f>[1]UK!H8</f>
         <v>28.343299999999999</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <v>100</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>3353.15</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="15" t="s">
+      <c r="G16" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <v>11.08</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <v>100</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>1108.3900000000001</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="16" t="s">
+      <c r="G17" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <v>59.6</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="5">
         <v>25</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <f>B18*C18</f>
         <v>1490</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="16" t="s">
+      <c r="G18" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>49.35</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <v>50</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <f>(C19*B19)</f>
         <v>2467.5</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="16" t="s">
+      <c r="G19" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="4">
         <v>62.1</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="5">
         <v>25</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <f>(C20*B20)</f>
         <v>1552.5</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="16" t="s">
+      <c r="G20" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="4">
         <v>29.58</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="5">
         <v>30</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <f>(C21*B21)</f>
         <v>887.4</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="16" t="s">
+      <c r="G21" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>92.5</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="5">
         <v>15</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="6">
         <f>(C22*B22)</f>
         <v>1387.5</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="16" t="s">
+      <c r="G22" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="4">
         <v>24.94</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="5">
         <v>75</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="6">
         <v>1870.32</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="16" t="s">
+      <c r="G23" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="4">
         <v>138.57</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="5">
         <v>20</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="6">
         <v>2771.45</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="17" t="s">
+      <c r="G24" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="4">
         <v>44.65</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="5">
         <v>25</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="6">
         <v>1116.24</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="18" t="s">
+      <c r="G25" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="7">
         <v>47.43</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="8">
         <v>25</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="8">
         <v>1180.8</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="18" t="s">
+      <c r="G26" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="7">
         <v>48.78</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="8">
         <v>44</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <f>C27*B27</f>
         <v>2146.3200000000002</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="18" t="s">
+      <c r="G27" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="7">
         <v>91.07</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="8">
         <v>30</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="8">
         <f>B28*C28</f>
         <v>2732.1</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="18" t="s">
+      <c r="G28" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="9">
         <v>13.72</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="10">
         <v>200</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="10">
         <f>C29*B29</f>
         <v>2744</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="18" t="s">
+      <c r="G29" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="9">
         <v>8.23</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="10">
         <v>205</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="10">
         <v>1686.24</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="19" t="s">
+      <c r="G30" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="9">
         <v>16.094999999999999</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="10">
         <v>50</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="10">
         <f>C31*B31</f>
         <v>804.75</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="19" t="s">
+      <c r="G31" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="9">
         <v>14.14</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="10">
         <v>75</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="10">
         <f>C32*B32</f>
         <v>1060.5</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="14" t="s">
+      <c r="G32" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="9">
         <v>2.46</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="10">
         <v>300</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="10">
         <v>738</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="18" t="s">
+      <c r="G33" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="7">
         <f>D34/C34</f>
         <v>151.96549999999999</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="8">
         <v>20</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="8">
         <v>3039.31</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="18" t="s">
+      <c r="G34" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="7">
         <v>60.78</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="8">
         <v>20</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="8">
         <v>1215.26</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="18" t="s">
+      <c r="G35" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="7">
         <v>104.61</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="8">
         <v>15</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="8">
         <f>B36*C36</f>
         <v>1569.15</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="18" t="s">
+      <c r="G36" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="7">
         <v>43.22</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="8">
         <v>50</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="8">
         <v>2160.75</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="19" t="s">
+      <c r="G37" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="7">
         <v>51.86</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="8">
         <v>25</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="8">
         <v>1296.5899999999999</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="18" t="s">
+      <c r="G38" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="7">
         <v>62.16</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="8">
         <v>15</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="8">
         <f>C39*B39</f>
         <v>932.4</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="14" t="s">
+      <c r="G39" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="7">
         <v>72.77</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="8">
         <v>10</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="8">
         <f>C40*B40</f>
         <v>727.69999999999993</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="18" t="s">
+      <c r="G40" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="7">
         <v>35.36</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="8">
         <v>50</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="8">
         <f>C41*B41</f>
         <v>1768</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="18" t="s">
+      <c r="G41" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="7">
         <v>37.47</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="8">
         <v>30</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="8">
         <f>C42*B42</f>
         <v>1124.0999999999999</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="18" t="s">
+      <c r="G42" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="7">
         <v>107.96</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="8">
         <v>10</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="8">
         <f>C43*B43</f>
         <v>1079.5999999999999</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="18" t="s">
+      <c r="G43" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="7">
         <v>221.95</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="8">
         <v>5</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="8">
         <v>1109.77</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="19" t="s">
+      <c r="G44" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="7">
         <v>99.48</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="8">
         <v>10</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="8">
         <f>C45*B45</f>
         <v>994.80000000000007</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="19" t="s">
+      <c r="G45" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="7">
         <v>114.09</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="8">
         <v>10</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="8">
         <f>C46*B46</f>
         <v>1140.9000000000001</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="19" t="s">
+      <c r="G46" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="7">
         <v>105.73</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="8">
         <v>25</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="8">
         <v>2643.32</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="18" t="s">
+      <c r="G47" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="7">
         <v>88.34</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="8">
         <v>15</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="8">
         <f>C48*B48</f>
         <v>1325.1000000000001</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="18" t="s">
+      <c r="G48" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="7">
         <v>88.69</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="8">
         <v>10</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="8">
         <f>C49*B49</f>
         <v>886.9</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="18" t="s">
+      <c r="G49" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="7">
         <v>29.06</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="8">
         <v>50</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="8">
         <f>C50*B50</f>
         <v>1453</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="18" t="s">
+      <c r="G50" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="7">
         <v>31.66</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="8">
         <v>30</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="8">
         <f>C51*B51</f>
         <v>949.8</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="14" t="s">
+      <c r="G51" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="7">
         <v>23.797999999999998</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="8">
         <v>50</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="8">
         <v>1189.92</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="18" t="s">
+      <c r="G52" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="7">
         <v>51.23</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="8">
         <v>25</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="8">
         <v>1280.78</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="18" t="s">
+      <c r="G53" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="7">
         <v>112.38</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="8">
         <v>20</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="8">
         <v>2247.65</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="18" t="s">
+      <c r="G54" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="7">
         <v>46.87</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="8">
         <v>50</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="8">
         <f>C55*B55</f>
         <v>2343.5</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="18" t="s">
+      <c r="G55" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="7">
         <v>31.47</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="8">
         <v>100</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="8">
         <f>C56*B56</f>
         <v>3147</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="20" t="s">
+      <c r="G56" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="7">
         <v>20.75</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="8">
         <v>50</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="8">
         <f>C57*B57</f>
         <v>1037.5</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="E57" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" s="19" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="19" t="s">
+      <c r="G57" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="7">
         <v>21.99</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="8">
         <v>100</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="8">
         <f>C58*B58</f>
         <v>2199</v>
       </c>
-      <c r="E58" s="21" t="s">
+      <c r="E58" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58" s="19" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="19" t="s">
+      <c r="G58" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="7">
         <v>22.97</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="8">
         <v>100</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="8">
         <v>2297.5</v>
       </c>
-      <c r="E59" s="21" t="s">
+      <c r="E59" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" s="19" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="2"/>
+      <c r="G59" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="7">
+        <v>421.76</v>
+      </c>
+      <c r="C60" s="8">
+        <v>14.058</v>
+      </c>
+      <c r="D60" s="8">
+        <v>5000</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="C61" s="8">
+        <v>225.45599999999999</v>
+      </c>
+      <c r="D61" s="8">
+        <v>5000</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" s="7">
+        <v>163.80000000000001</v>
+      </c>
+      <c r="C62" s="8">
+        <v>30.524999999999999</v>
+      </c>
+      <c r="D62" s="8">
+        <v>5000</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="7">
+        <v>34.107999999999997</v>
+      </c>
+      <c r="C63" s="8">
+        <v>146.59</v>
+      </c>
+      <c r="D63" s="8">
+        <v>5000</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>